--- a/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
+++ b/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
+++ b/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT01899560</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Prospective Physiological Study of Lung Elastance in Recruitment and Derecruitment in Early Onset Mechanically Ventilated Acute Respiratory Distress Syndrome (ARDS)Patients</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>ELASTANCE</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -556,28 +566,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00935480</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>IMPACT OF THERAPY INTENSIFICATION BY AN INTEGRASE INHIBITOR +/- CCR5 INHIBITOR ON THE LYMPHOID RESERVOIR FOR HIV-1 IN CHRONICALLY INFECTED PATIENTS</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>IntensVIH</t>
         </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -585,7 +597,10 @@
       <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -604,36 +619,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT01781091</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>S4 :RANDOMIZED CONTROLLED TRIAL OF FULLY CLOSED-LOOP VENTILATION IN ICU.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>S4</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -652,36 +672,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT03870295</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Assessment of a New Measurement Technique for Type C Fibre Nerve Conduction Velocity in Polyneuropathies.</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>FIBREC</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -700,36 +725,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT05077605</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Electrical Impedance Tomography: Effect of Extubation on Functional Residual Capacity</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>PULMOVISTA</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -748,36 +778,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT04634318</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Organization of Pulmonary Rehabilitation of Post-COVID-19 Patient With Sequelae. Assessment and Therapeutic Indication of Tele-rehabilitation Versus Conventional Rehabilitation</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>REHABCOVID</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -796,36 +831,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT05237050</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Evaluation of Sound Therapy in a Population of Women With Fibromyalgia Aged Between 30 and 60 Years</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>SONOMYAL</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -844,36 +884,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT04903522</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Can the Affects Conveyed by Baroque Music and Its Rhetoric Reduce Anxiety in Patients With Major Depressive Disorder Associated With Anxiety Symptoms?</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>BARHEPSY</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -892,36 +937,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT03868956</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Safety of a Management Strategy Based on Colour Doppler ULTrasound and D-Dimer Testing for the Diagnosis Exclusion of RECurrent Deep Vein Thrombosis of the Lower Limbs. The ULTREC Project</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>ULTREC</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -940,36 +990,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT04878263</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Evaluation and Support Care Process Within the Care Pathway of Heart Failure Patients</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>FIL-EAS</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -988,36 +1043,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT05673486</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Analgesic Efficacy of Regional Anesthesia by PENG-Block in Patients Diagnosed With Hip Fractures in the Emergency Department: an Open-label Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>ED-PENGBLOCK</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>COMBINATION_PRODUCT</t>
         </is>
@@ -1036,36 +1096,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT05437991</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Ultrasonographic Morphology Assessment of Low-grade Carotid Stenosis</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>QUAMUS</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1084,36 +1149,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT04028973</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Towards a Better Understanding of Neuromuscular Alterations and Fatigue in Chronic Obstructive Pulmonary Disease (COPD)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>NEUROTIGUE</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1132,36 +1202,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT04919408</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Evaluation of the Incidence of Chronic Post-cesarean Pain as Part of an Enhanced Recovery After Surgery (ERAS) Protocol.</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>ChroCéRAAC</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1180,36 +1255,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT03787173</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Patient-ventilator Synchronisation Study in Non Invasive Ventilation for Intensive Care Unit Patients: Comparison Between Manual and Automated Ventilator Settings.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>SyncAutoVNI</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>

--- a/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
+++ b/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>vert</t>

--- a/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
+++ b/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📕</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>-3</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
+++ b/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
@@ -67,7 +67,7 @@
     <t>-3</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>vert</t>
@@ -79,16 +79,16 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
   </si>
   <si>
     <t>NCT01899560</t>

--- a/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
+++ b/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,52 +40,31 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>✅</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>vert</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>rouge</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>1: résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>3: résultats postés ou publiés après les 36 mois</t>
   </si>
   <si>
     <t>NCT01899560</t>
@@ -620,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,542 +630,350 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
+      <c r="F6" t="s">
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
       </c>
       <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
         <v>51</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H15" t="s">
         <v>66</v>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
         <v>52</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H16" t="s">
         <v>67</v>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="I16" t="s">
         <v>70</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
+++ b/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
@@ -79,6 +79,9 @@
     <t>NCT03870295</t>
   </si>
   <si>
+    <t>NCT04903522</t>
+  </si>
+  <si>
     <t>NCT05077605</t>
   </si>
   <si>
@@ -88,24 +91,21 @@
     <t>NCT05237050</t>
   </si>
   <si>
-    <t>NCT04903522</t>
+    <t>NCT05437991</t>
+  </si>
+  <si>
+    <t>NCT04878263</t>
   </si>
   <si>
     <t>NCT03868956</t>
   </si>
   <si>
-    <t>NCT04878263</t>
+    <t>NCT04028973</t>
   </si>
   <si>
     <t>NCT05673486</t>
   </si>
   <si>
-    <t>NCT05437991</t>
-  </si>
-  <si>
-    <t>NCT04028973</t>
-  </si>
-  <si>
     <t>NCT04919408</t>
   </si>
   <si>
@@ -142,6 +142,9 @@
     <t>Assessment of a New Measurement Technique for Type C Fibre Nerve Conduction Velocity in Polyneuropathies.</t>
   </si>
   <si>
+    <t>Can the Affects Conveyed by Baroque Music and Its Rhetoric Reduce Anxiety in Patients With Major Depressive Disorder Associated With Anxiety Symptoms?</t>
+  </si>
+  <si>
     <t>Electrical Impedance Tomography: Effect of Extubation on Functional Residual Capacity</t>
   </si>
   <si>
@@ -151,24 +154,21 @@
     <t>Evaluation of Sound Therapy in a Population of Women With Fibromyalgia Aged Between 30 and 60 Years</t>
   </si>
   <si>
-    <t>Can the Affects Conveyed by Baroque Music and Its Rhetoric Reduce Anxiety in Patients With Major Depressive Disorder Associated With Anxiety Symptoms?</t>
+    <t>Ultrasonographic Morphology Assessment of Low-grade Carotid Stenosis</t>
+  </si>
+  <si>
+    <t>Evaluation and Support Care Process Within the Care Pathway of Heart Failure Patients</t>
   </si>
   <si>
     <t>Safety of a Management Strategy Based on Colour Doppler ULTrasound and D-Dimer Testing for the Diagnosis Exclusion of RECurrent Deep Vein Thrombosis of the Lower Limbs. The ULTREC Project</t>
   </si>
   <si>
-    <t>Evaluation and Support Care Process Within the Care Pathway of Heart Failure Patients</t>
+    <t>Towards a Better Understanding of Neuromuscular Alterations and Fatigue in Chronic Obstructive Pulmonary Disease (COPD)</t>
   </si>
   <si>
     <t>Analgesic Efficacy of Regional Anesthesia by PENG-Block in Patients Diagnosed With Hip Fractures in the Emergency Department: an Open-label Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Ultrasonographic Morphology Assessment of Low-grade Carotid Stenosis</t>
-  </si>
-  <si>
-    <t>Towards a Better Understanding of Neuromuscular Alterations and Fatigue in Chronic Obstructive Pulmonary Disease (COPD)</t>
-  </si>
-  <si>
     <t>Evaluation of the Incidence of Chronic Post-cesarean Pain as Part of an Enhanced Recovery After Surgery (ERAS) Protocol.</t>
   </si>
   <si>
@@ -187,6 +187,9 @@
     <t>FIBREC</t>
   </si>
   <si>
+    <t>BARHEPSY</t>
+  </si>
+  <si>
     <t>PULMOVISTA</t>
   </si>
   <si>
@@ -196,24 +199,21 @@
     <t>SONOMYAL</t>
   </si>
   <si>
-    <t>BARHEPSY</t>
+    <t>QUAMUS</t>
+  </si>
+  <si>
+    <t>FIL-EAS</t>
   </si>
   <si>
     <t>ULTREC</t>
   </si>
   <si>
-    <t>FIL-EAS</t>
+    <t>NEUROTIGUE</t>
   </si>
   <si>
     <t>ED-PENGBLOCK</t>
   </si>
   <si>
-    <t>QUAMUS</t>
-  </si>
-  <si>
-    <t>NEUROTIGUE</t>
-  </si>
-  <si>
     <t>ChroCéRAAC</t>
   </si>
   <si>
@@ -232,10 +232,10 @@
     <t>DIAGNOSTIC_TEST</t>
   </si>
   <si>
+    <t>BEHAVIORAL</t>
+  </si>
+  <si>
     <t>OTHER</t>
-  </si>
-  <si>
-    <t>BEHAVIORAL</t>
   </si>
   <si>
     <t>COMBINATION_PRODUCT</t>
@@ -748,10 +748,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -766,15 +766,15 @@
         <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -789,7 +789,7 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -817,10 +817,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -858,7 +858,7 @@
         <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -881,15 +881,15 @@
         <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -904,15 +904,15 @@
         <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -927,7 +927,7 @@
         <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -950,7 +950,7 @@
         <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9">

--- a/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
+++ b/publipostage2/04wqvjr21/liste_essais_cliniques_identifies_04wqvjr21.xlsx
@@ -55,16 +55,16 @@
     <t>3</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
   </si>
   <si>
     <t>NCT01899560</t>
@@ -82,27 +82,27 @@
     <t>NCT04903522</t>
   </si>
   <si>
+    <t>NCT04634318</t>
+  </si>
+  <si>
+    <t>NCT05237050</t>
+  </si>
+  <si>
     <t>NCT05077605</t>
   </si>
   <si>
-    <t>NCT04634318</t>
-  </si>
-  <si>
-    <t>NCT05237050</t>
+    <t>NCT04028973</t>
   </si>
   <si>
     <t>NCT05437991</t>
   </si>
   <si>
+    <t>NCT03868956</t>
+  </si>
+  <si>
     <t>NCT04878263</t>
   </si>
   <si>
-    <t>NCT03868956</t>
-  </si>
-  <si>
-    <t>NCT04028973</t>
-  </si>
-  <si>
     <t>NCT05673486</t>
   </si>
   <si>
@@ -145,27 +145,27 @@
     <t>Can the Affects Conveyed by Baroque Music and Its Rhetoric Reduce Anxiety in Patients With Major Depressive Disorder Associated With Anxiety Symptoms?</t>
   </si>
   <si>
+    <t>Organization of Pulmonary Rehabilitation of Post-COVID-19 Patient With Sequelae. Assessment and Therapeutic Indication of Tele-rehabilitation Versus Conventional Rehabilitation</t>
+  </si>
+  <si>
+    <t>Evaluation of Sound Therapy in a Population of Women With Fibromyalgia Aged Between 30 and 60 Years</t>
+  </si>
+  <si>
     <t>Electrical Impedance Tomography: Effect of Extubation on Functional Residual Capacity</t>
   </si>
   <si>
-    <t>Organization of Pulmonary Rehabilitation of Post-COVID-19 Patient With Sequelae. Assessment and Therapeutic Indication of Tele-rehabilitation Versus Conventional Rehabilitation</t>
-  </si>
-  <si>
-    <t>Evaluation of Sound Therapy in a Population of Women With Fibromyalgia Aged Between 30 and 60 Years</t>
+    <t>Towards a Better Understanding of Neuromuscular Alterations and Fatigue in Chronic Obstructive Pulmonary Disease (COPD)</t>
   </si>
   <si>
     <t>Ultrasonographic Morphology Assessment of Low-grade Carotid Stenosis</t>
   </si>
   <si>
+    <t>Safety of a Management Strategy Based on Colour Doppler ULTrasound and D-Dimer Testing for the Diagnosis Exclusion of RECurrent Deep Vein Thrombosis of the Lower Limbs. The ULTREC Project</t>
+  </si>
+  <si>
     <t>Evaluation and Support Care Process Within the Care Pathway of Heart Failure Patients</t>
   </si>
   <si>
-    <t>Safety of a Management Strategy Based on Colour Doppler ULTrasound and D-Dimer Testing for the Diagnosis Exclusion of RECurrent Deep Vein Thrombosis of the Lower Limbs. The ULTREC Project</t>
-  </si>
-  <si>
-    <t>Towards a Better Understanding of Neuromuscular Alterations and Fatigue in Chronic Obstructive Pulmonary Disease (COPD)</t>
-  </si>
-  <si>
     <t>Analgesic Efficacy of Regional Anesthesia by PENG-Block in Patients Diagnosed With Hip Fractures in the Emergency Department: an Open-label Randomized Controlled Trial</t>
   </si>
   <si>
@@ -190,25 +190,25 @@
     <t>BARHEPSY</t>
   </si>
   <si>
+    <t>REHABCOVID</t>
+  </si>
+  <si>
+    <t>SONOMYAL</t>
+  </si>
+  <si>
     <t>PULMOVISTA</t>
   </si>
   <si>
-    <t>REHABCOVID</t>
-  </si>
-  <si>
-    <t>SONOMYAL</t>
+    <t>NEUROTIGUE</t>
   </si>
   <si>
     <t>QUAMUS</t>
   </si>
   <si>
+    <t>ULTREC</t>
+  </si>
+  <si>
     <t>FIL-EAS</t>
-  </si>
-  <si>
-    <t>ULTREC</t>
-  </si>
-  <si>
-    <t>NEUROTIGUE</t>
   </si>
   <si>
     <t>ED-PENGBLOCK</t>
@@ -748,10 +748,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -835,15 +835,15 @@
         <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -858,7 +858,7 @@
         <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -886,10 +886,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
